--- a/Code/Results/Cases/Case_2_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006534646968246</v>
+        <v>1.033402712836467</v>
       </c>
       <c r="D2">
-        <v>1.021527761106769</v>
+        <v>1.035755606207742</v>
       </c>
       <c r="E2">
-        <v>1.008840782295786</v>
+        <v>1.052201421705744</v>
       </c>
       <c r="F2">
-        <v>1.013387552278392</v>
+        <v>1.057679932864867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043316501617212</v>
+        <v>1.035777505714085</v>
       </c>
       <c r="J2">
-        <v>1.028521649218319</v>
+        <v>1.038527633493211</v>
       </c>
       <c r="K2">
-        <v>1.032695110777822</v>
+        <v>1.03855130136421</v>
       </c>
       <c r="L2">
-        <v>1.020178309827054</v>
+        <v>1.054950809217675</v>
       </c>
       <c r="M2">
-        <v>1.0246634754837</v>
+        <v>1.060414240607005</v>
       </c>
       <c r="N2">
-        <v>1.013295861006459</v>
+        <v>1.016798842042896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011044107767525</v>
+        <v>1.034329766068087</v>
       </c>
       <c r="D3">
-        <v>1.024715049499437</v>
+        <v>1.036427912282907</v>
       </c>
       <c r="E3">
-        <v>1.014464342776231</v>
+        <v>1.053467042264478</v>
       </c>
       <c r="F3">
-        <v>1.019332447527868</v>
+        <v>1.059016908378663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044586203063945</v>
+        <v>1.03598388010999</v>
       </c>
       <c r="J3">
-        <v>1.03123816107985</v>
+        <v>1.039097499322869</v>
       </c>
       <c r="K3">
-        <v>1.035041169060816</v>
+        <v>1.039033432436287</v>
       </c>
       <c r="L3">
-        <v>1.024915435247459</v>
+        <v>1.056028065862906</v>
       </c>
       <c r="M3">
-        <v>1.029723800271795</v>
+        <v>1.061563772226247</v>
       </c>
       <c r="N3">
-        <v>1.014210311180095</v>
+        <v>1.016989481453113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013897609289737</v>
+        <v>1.034929596865193</v>
       </c>
       <c r="D4">
-        <v>1.026734618022712</v>
+        <v>1.036862901629136</v>
       </c>
       <c r="E4">
-        <v>1.018026696134904</v>
+        <v>1.054286710371128</v>
       </c>
       <c r="F4">
-        <v>1.023097943986898</v>
+        <v>1.059882788894382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045380112035612</v>
+        <v>1.036116226252016</v>
       </c>
       <c r="J4">
-        <v>1.032952372107781</v>
+        <v>1.03946558768959</v>
       </c>
       <c r="K4">
-        <v>1.036520741702259</v>
+        <v>1.039344686094113</v>
       </c>
       <c r="L4">
-        <v>1.027912316295793</v>
+        <v>1.056725292796357</v>
       </c>
       <c r="M4">
-        <v>1.032925366117256</v>
+        <v>1.062307819885126</v>
       </c>
       <c r="N4">
-        <v>1.01478723668201</v>
+        <v>1.017112571294247</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015082366281678</v>
+        <v>1.035181757080098</v>
       </c>
       <c r="D5">
-        <v>1.027573731222296</v>
+        <v>1.037045761248684</v>
       </c>
       <c r="E5">
-        <v>1.019506819679056</v>
+        <v>1.054631474390235</v>
       </c>
       <c r="F5">
-        <v>1.024662372828371</v>
+        <v>1.060246990468926</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045707417478167</v>
+        <v>1.036171578949481</v>
       </c>
       <c r="J5">
-        <v>1.033662938780218</v>
+        <v>1.039620175332636</v>
       </c>
       <c r="K5">
-        <v>1.037133825108329</v>
+        <v>1.039475364888434</v>
       </c>
       <c r="L5">
-        <v>1.029156535240124</v>
+        <v>1.057018448953602</v>
       </c>
       <c r="M5">
-        <v>1.034254611173183</v>
+        <v>1.06262067237744</v>
       </c>
       <c r="N5">
-        <v>1.015026347804175</v>
+        <v>1.01716425424827</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015280437007627</v>
+        <v>1.035224095371918</v>
       </c>
       <c r="D6">
-        <v>1.02771405017879</v>
+        <v>1.037076463576849</v>
       </c>
       <c r="E6">
-        <v>1.019754336162508</v>
+        <v>1.054689372124217</v>
       </c>
       <c r="F6">
-        <v>1.024923981631825</v>
+        <v>1.060308152433503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045761999835591</v>
+        <v>1.036180856153912</v>
       </c>
       <c r="J6">
-        <v>1.033781664018319</v>
+        <v>1.039646122077351</v>
       </c>
       <c r="K6">
-        <v>1.037236248882835</v>
+        <v>1.039497296318025</v>
       </c>
       <c r="L6">
-        <v>1.029364545623723</v>
+        <v>1.057067673660271</v>
       </c>
       <c r="M6">
-        <v>1.034476838958285</v>
+        <v>1.062673204941389</v>
       </c>
       <c r="N6">
-        <v>1.015066297689682</v>
+        <v>1.017172928284268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013913497712042</v>
+        <v>1.03493296627677</v>
       </c>
       <c r="D7">
-        <v>1.026745868812722</v>
+        <v>1.036865345048353</v>
       </c>
       <c r="E7">
-        <v>1.01804654129636</v>
+        <v>1.054291316433145</v>
       </c>
       <c r="F7">
-        <v>1.023118919884266</v>
+        <v>1.059887654643168</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045384510646546</v>
+        <v>1.036116967000109</v>
       </c>
       <c r="J7">
-        <v>1.032961905936301</v>
+        <v>1.039467653913485</v>
       </c>
       <c r="K7">
-        <v>1.036528968472158</v>
+        <v>1.039346432907987</v>
       </c>
       <c r="L7">
-        <v>1.027929002292785</v>
+        <v>1.0567292097968</v>
       </c>
       <c r="M7">
-        <v>1.03294319220564</v>
+        <v>1.062312000018293</v>
       </c>
       <c r="N7">
-        <v>1.014790445024837</v>
+        <v>1.017113262136183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008072330999639</v>
+        <v>1.033716021770947</v>
       </c>
       <c r="D8">
-        <v>1.022613995654442</v>
+        <v>1.035982822452979</v>
       </c>
       <c r="E8">
-        <v>1.010757631004234</v>
+        <v>1.052628994479679</v>
       </c>
       <c r="F8">
-        <v>1.015414018022806</v>
+        <v>1.058131611922911</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043751439114386</v>
+        <v>1.035847497528594</v>
       </c>
       <c r="J8">
-        <v>1.029448935607767</v>
+        <v>1.038720357276022</v>
       </c>
       <c r="K8">
-        <v>1.033496116755915</v>
+        <v>1.038714388056568</v>
       </c>
       <c r="L8">
-        <v>1.021793828684505</v>
+        <v>1.055314838752053</v>
       </c>
       <c r="M8">
-        <v>1.026389167382531</v>
+        <v>1.060802684616251</v>
       </c>
       <c r="N8">
-        <v>1.013608034002416</v>
+        <v>1.016863324612869</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9972588593208096</v>
+        <v>1.031571360328101</v>
       </c>
       <c r="D9">
-        <v>1.01498898793899</v>
+        <v>1.034427455600163</v>
       </c>
       <c r="E9">
-        <v>0.997288636192373</v>
+        <v>1.049705271140779</v>
       </c>
       <c r="F9">
-        <v>1.001173015609997</v>
+        <v>1.055043052356155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040653603875195</v>
+        <v>1.035363541631395</v>
       </c>
       <c r="J9">
-        <v>1.022908787052418</v>
+        <v>1.037398541499922</v>
       </c>
       <c r="K9">
-        <v>1.027843471673703</v>
+        <v>1.037595171767733</v>
       </c>
       <c r="L9">
-        <v>1.010425857090411</v>
+        <v>1.052823779307446</v>
       </c>
       <c r="M9">
-        <v>1.01424709007959</v>
+        <v>1.05814473548057</v>
       </c>
       <c r="N9">
-        <v>1.01140590333142</v>
+        <v>1.016420869130226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9896589902281654</v>
+        <v>1.030141436531699</v>
       </c>
       <c r="D10">
-        <v>1.009650031827903</v>
+        <v>1.033390427965047</v>
       </c>
       <c r="E10">
-        <v>0.9878294966158668</v>
+        <v>1.047759724202017</v>
       </c>
       <c r="F10">
-        <v>0.9911694319204498</v>
+        <v>1.052987821071018</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03842799327494</v>
+        <v>1.03503479077611</v>
       </c>
       <c r="J10">
-        <v>1.018288986634666</v>
+        <v>1.036514001570785</v>
       </c>
       <c r="K10">
-        <v>1.023847210796894</v>
+        <v>1.036845376216197</v>
       </c>
       <c r="L10">
-        <v>1.002422026001121</v>
+        <v>1.051163826205372</v>
       </c>
       <c r="M10">
-        <v>1.005699976664182</v>
+        <v>1.056373802297804</v>
       </c>
       <c r="N10">
-        <v>1.009850063955692</v>
+        <v>1.016124542064236</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9862654133200711</v>
+        <v>1.029522231342805</v>
       </c>
       <c r="D11">
-        <v>1.007271635796236</v>
+        <v>1.032941366299381</v>
       </c>
       <c r="E11">
-        <v>0.9836049887418959</v>
+        <v>1.046918113234335</v>
       </c>
       <c r="F11">
-        <v>0.9867012256716812</v>
+        <v>1.052098763803399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03742319441788</v>
+        <v>1.034890990994194</v>
       </c>
       <c r="J11">
-        <v>1.016220943842968</v>
+        <v>1.03613020025647</v>
       </c>
       <c r="K11">
-        <v>1.022057710363162</v>
+        <v>1.0365198458784</v>
       </c>
       <c r="L11">
-        <v>0.9988428587589709</v>
+        <v>1.050445207899062</v>
       </c>
       <c r="M11">
-        <v>1.001878372056833</v>
+        <v>1.055607194910095</v>
       </c>
       <c r="N11">
-        <v>1.009153578887946</v>
+        <v>1.015995909414484</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9849885105024972</v>
+        <v>1.029292225289991</v>
       </c>
       <c r="D12">
-        <v>1.006377636375647</v>
+        <v>1.032774562301759</v>
       </c>
       <c r="E12">
-        <v>0.98201510072303</v>
+        <v>1.046605623225413</v>
       </c>
       <c r="F12">
-        <v>0.9850195392783082</v>
+        <v>1.051768657230261</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037043509300336</v>
+        <v>1.034837359930429</v>
       </c>
       <c r="J12">
-        <v>1.015442057041949</v>
+        <v>1.035987520960754</v>
       </c>
       <c r="K12">
-        <v>1.0213836625071</v>
+        <v>1.036398800002729</v>
       </c>
       <c r="L12">
-        <v>0.997495169340058</v>
+        <v>1.050178302241944</v>
       </c>
       <c r="M12">
-        <v>1.000439481158874</v>
+        <v>1.055322473898689</v>
       </c>
       <c r="N12">
-        <v>1.008891264040186</v>
+        <v>1.015948081423387</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9852631674477356</v>
+        <v>1.029341562623578</v>
       </c>
       <c r="D13">
-        <v>1.00656988937501</v>
+        <v>1.032810342426101</v>
       </c>
       <c r="E13">
-        <v>0.9823570983288642</v>
+        <v>1.04667264791409</v>
       </c>
       <c r="F13">
-        <v>0.985381287200282</v>
+        <v>1.051839460411394</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037125250104977</v>
+        <v>1.034848873811293</v>
       </c>
       <c r="J13">
-        <v>1.015609625696011</v>
+        <v>1.03601813150793</v>
       </c>
       <c r="K13">
-        <v>1.021528679024982</v>
+        <v>1.036424770604138</v>
       </c>
       <c r="L13">
-        <v>0.9977850982555031</v>
+        <v>1.050235553480479</v>
       </c>
       <c r="M13">
-        <v>1.000749026285821</v>
+        <v>1.055383546141843</v>
       </c>
       <c r="N13">
-        <v>1.008947697920141</v>
+        <v>1.01595834286411</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9861602039025125</v>
+        <v>1.029503219085662</v>
       </c>
       <c r="D14">
-        <v>1.007197956238983</v>
+        <v>1.032927578275398</v>
       </c>
       <c r="E14">
-        <v>0.983473999224561</v>
+        <v>1.046892280239902</v>
       </c>
       <c r="F14">
-        <v>0.9865626746513342</v>
+        <v>1.052071474473749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037391942995265</v>
+        <v>1.034886562267933</v>
       </c>
       <c r="J14">
-        <v>1.016156782986579</v>
+        <v>1.036118408755276</v>
       </c>
       <c r="K14">
-        <v>1.022002186898585</v>
+        <v>1.036509842826372</v>
       </c>
       <c r="L14">
-        <v>0.9987318373714573</v>
+        <v>1.050423144972025</v>
       </c>
       <c r="M14">
-        <v>1.001759835793824</v>
+        <v>1.055583659157759</v>
       </c>
       <c r="N14">
-        <v>1.00913197060887</v>
+        <v>1.015991956918189</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9867106982676627</v>
+        <v>1.029602820219602</v>
       </c>
       <c r="D15">
-        <v>1.007583512763602</v>
+        <v>1.032999810843436</v>
       </c>
       <c r="E15">
-        <v>0.9841593697093168</v>
+        <v>1.047027619042295</v>
       </c>
       <c r="F15">
-        <v>0.9872876054660655</v>
+        <v>1.052214443011977</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037555396639867</v>
+        <v>1.034909754565328</v>
       </c>
       <c r="J15">
-        <v>1.016492466089524</v>
+        <v>1.036180177195189</v>
       </c>
       <c r="K15">
-        <v>1.022292677371597</v>
+        <v>1.036562241492953</v>
       </c>
       <c r="L15">
-        <v>0.9993127021543332</v>
+        <v>1.050538729036534</v>
       </c>
       <c r="M15">
-        <v>1.00238002198879</v>
+        <v>1.05570695946238</v>
       </c>
       <c r="N15">
-        <v>1.009245023058368</v>
+        <v>1.016012661277091</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9898819670981207</v>
+        <v>1.030182530336846</v>
       </c>
       <c r="D16">
-        <v>1.009806428934649</v>
+        <v>1.033420230315301</v>
       </c>
       <c r="E16">
-        <v>0.988107037070632</v>
+        <v>1.04781559633594</v>
       </c>
       <c r="F16">
-        <v>0.9914629713700375</v>
+        <v>1.053046843059651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038493788920216</v>
+        <v>1.035044303792824</v>
       </c>
       <c r="J16">
-        <v>1.018424763842215</v>
+        <v>1.036539456582933</v>
       </c>
       <c r="K16">
-        <v>1.023964689791681</v>
+        <v>1.036866962423332</v>
       </c>
       <c r="L16">
-        <v>1.00265707463701</v>
+        <v>1.051211521599335</v>
       </c>
       <c r="M16">
-        <v>1.005950957785248</v>
+        <v>1.05642468396079</v>
       </c>
       <c r="N16">
-        <v>1.009895791683287</v>
+        <v>1.016133072236875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9918430652169914</v>
+        <v>1.030546156906655</v>
       </c>
       <c r="D17">
-        <v>1.011182600149937</v>
+        <v>1.033683943045326</v>
       </c>
       <c r="E17">
-        <v>0.9905479203135457</v>
+        <v>1.04831009280709</v>
       </c>
       <c r="F17">
-        <v>0.9940444986972694</v>
+        <v>1.053569217484833</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039071221935149</v>
+        <v>1.035128315305342</v>
       </c>
       <c r="J17">
-        <v>1.019618351918267</v>
+        <v>1.03676461180085</v>
       </c>
       <c r="K17">
-        <v>1.024997358235638</v>
+        <v>1.037057874786087</v>
       </c>
       <c r="L17">
-        <v>1.004723733605673</v>
+        <v>1.051633586177934</v>
       </c>
       <c r="M17">
-        <v>1.008157761469851</v>
+        <v>1.056874950837896</v>
       </c>
       <c r="N17">
-        <v>1.010297772875977</v>
+        <v>1.016208516989236</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9929770904837705</v>
+        <v>1.030758250384255</v>
       </c>
       <c r="D18">
-        <v>1.011978911835129</v>
+        <v>1.033837760057981</v>
       </c>
       <c r="E18">
-        <v>0.9919593347927872</v>
+        <v>1.048598603839393</v>
       </c>
       <c r="F18">
-        <v>0.9955371874061365</v>
+        <v>1.053873993867472</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039404084161443</v>
+        <v>1.035177178027475</v>
       </c>
       <c r="J18">
-        <v>1.020308065769286</v>
+        <v>1.036895864820484</v>
       </c>
       <c r="K18">
-        <v>1.02559402830337</v>
+        <v>1.037169147356561</v>
       </c>
       <c r="L18">
-        <v>1.005918319163383</v>
+        <v>1.05187978411902</v>
       </c>
       <c r="M18">
-        <v>1.009433402040909</v>
+        <v>1.057137605072583</v>
       </c>
       <c r="N18">
-        <v>1.010530055411221</v>
+        <v>1.016252491648459</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9933621202317761</v>
+        <v>1.030830568138872</v>
       </c>
       <c r="D19">
-        <v>1.012249366488806</v>
+        <v>1.033890207293857</v>
       </c>
       <c r="E19">
-        <v>0.9924385426849486</v>
+        <v>1.048696992208407</v>
       </c>
       <c r="F19">
-        <v>0.9960439810314102</v>
+        <v>1.053977929084897</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039516920746107</v>
+        <v>1.03519381523928</v>
       </c>
       <c r="J19">
-        <v>1.020542156570434</v>
+        <v>1.03694060577441</v>
       </c>
       <c r="K19">
-        <v>1.02579652964212</v>
+        <v>1.037207074273156</v>
       </c>
       <c r="L19">
-        <v>1.006323833853498</v>
+        <v>1.051963733819212</v>
       </c>
       <c r="M19">
-        <v>1.009866439522082</v>
+        <v>1.057227167023861</v>
       </c>
       <c r="N19">
-        <v>1.010608892276659</v>
+        <v>1.016267480610395</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916336833084285</v>
+        <v>1.030507143603608</v>
       </c>
       <c r="D20">
-        <v>1.011035614360015</v>
+        <v>1.033655649382963</v>
       </c>
       <c r="E20">
-        <v>0.9902873197312423</v>
+        <v>1.0482570297955</v>
       </c>
       <c r="F20">
-        <v>0.9937688876378329</v>
+        <v>1.053513162956118</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039009678834221</v>
+        <v>1.035119316120914</v>
       </c>
       <c r="J20">
-        <v>1.019490965992935</v>
+        <v>1.036740462657709</v>
       </c>
       <c r="K20">
-        <v>1.024887152222705</v>
+        <v>1.037037400318</v>
       </c>
       <c r="L20">
-        <v>1.0045031323384</v>
+        <v>1.051588301122964</v>
       </c>
       <c r="M20">
-        <v>1.007922195749465</v>
+        <v>1.056826639284254</v>
       </c>
       <c r="N20">
-        <v>1.010254871521816</v>
+        <v>1.016200425685549</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9858965090093592</v>
+        <v>1.029455615442258</v>
       </c>
       <c r="D21">
-        <v>1.007013302289764</v>
+        <v>1.032893055302564</v>
       </c>
       <c r="E21">
-        <v>0.9831456834589388</v>
+        <v>1.046827600648331</v>
       </c>
       <c r="F21">
-        <v>0.9862154051884418</v>
+        <v>1.052003148573819</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037313589258866</v>
+        <v>1.034875469957138</v>
       </c>
       <c r="J21">
-        <v>1.015995959568795</v>
+        <v>1.036088882871719</v>
       </c>
       <c r="K21">
-        <v>1.021863012638105</v>
+        <v>1.036484794746711</v>
       </c>
       <c r="L21">
-        <v>0.9984535594838999</v>
+        <v>1.050367903382445</v>
       </c>
       <c r="M21">
-        <v>1.001462723085409</v>
+        <v>1.055524730017239</v>
       </c>
       <c r="N21">
-        <v>1.009077808085675</v>
+        <v>1.015982059743678</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9821940460007057</v>
+        <v>1.028794445187818</v>
       </c>
       <c r="D22">
-        <v>1.004422927745875</v>
+        <v>1.032413568054482</v>
       </c>
       <c r="E22">
-        <v>0.9785348041362054</v>
+        <v>1.04592956539998</v>
       </c>
       <c r="F22">
-        <v>0.9813381409843196</v>
+        <v>1.051054487257931</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036209667880645</v>
+        <v>1.034720896356798</v>
       </c>
       <c r="J22">
-        <v>1.013736154041065</v>
+        <v>1.035678523899578</v>
       </c>
       <c r="K22">
-        <v>1.019907271838726</v>
+        <v>1.036136601128671</v>
       </c>
       <c r="L22">
-        <v>0.9945438305250599</v>
+        <v>1.04960071257292</v>
       </c>
       <c r="M22">
-        <v>0.9972885850112465</v>
+        <v>1.054706347115675</v>
       </c>
       <c r="N22">
-        <v>1.008316756728149</v>
+        <v>1.015844486199956</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.984166155130881</v>
+        <v>1.029144947106325</v>
       </c>
       <c r="D23">
-        <v>1.005802149272548</v>
+        <v>1.03266775439132</v>
       </c>
       <c r="E23">
-        <v>0.9809910526754617</v>
+        <v>1.046405564842769</v>
       </c>
       <c r="F23">
-        <v>0.9839363403973583</v>
+        <v>1.051557320667251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036798535246973</v>
+        <v>1.034802957909509</v>
       </c>
       <c r="J23">
-        <v>1.01494023021712</v>
+        <v>1.03589612779473</v>
       </c>
       <c r="K23">
-        <v>1.020949365271707</v>
+        <v>1.036321255982384</v>
       </c>
       <c r="L23">
-        <v>0.996626933902107</v>
+        <v>1.050007403972298</v>
       </c>
       <c r="M23">
-        <v>0.9995125152431216</v>
+        <v>1.055140170964448</v>
       </c>
       <c r="N23">
-        <v>1.008722259190284</v>
+        <v>1.015917442862891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9917283243512867</v>
+        <v>1.030524772047426</v>
       </c>
       <c r="D24">
-        <v>1.01110205060505</v>
+        <v>1.033668434077809</v>
       </c>
       <c r="E24">
-        <v>0.9904051118604359</v>
+        <v>1.048281006439873</v>
       </c>
       <c r="F24">
-        <v>0.9938934647013485</v>
+        <v>1.05353849132404</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039037499681805</v>
+        <v>1.035123382896844</v>
       </c>
       <c r="J24">
-        <v>1.019548546211457</v>
+        <v>1.036751374851425</v>
       </c>
       <c r="K24">
-        <v>1.024936967057499</v>
+        <v>1.037046652106425</v>
       </c>
       <c r="L24">
-        <v>1.004602846034064</v>
+        <v>1.051608763443799</v>
       </c>
       <c r="M24">
-        <v>1.008028673361607</v>
+        <v>1.056848469129873</v>
       </c>
       <c r="N24">
-        <v>1.01027426353989</v>
+        <v>1.016204081893137</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000120118034474</v>
+        <v>1.032125834415625</v>
       </c>
       <c r="D25">
-        <v>1.017003405463873</v>
+        <v>1.034829579463566</v>
       </c>
       <c r="E25">
-        <v>1.000850603910668</v>
+        <v>1.050460481804124</v>
       </c>
       <c r="F25">
-        <v>1.004939534312719</v>
+        <v>1.05584084051551</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041481774794462</v>
+        <v>1.035489734541382</v>
       </c>
       <c r="J25">
-        <v>1.024643440404631</v>
+        <v>1.037740850947302</v>
       </c>
       <c r="K25">
-        <v>1.029343377551691</v>
+        <v>1.037885161629396</v>
       </c>
       <c r="L25">
-        <v>1.013435729684353</v>
+        <v>1.05346763909274</v>
       </c>
       <c r="M25">
-        <v>1.017461651274275</v>
+        <v>1.058831691030374</v>
       </c>
       <c r="N25">
-        <v>1.011990048486003</v>
+        <v>1.016535494382707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033402712836467</v>
+        <v>1.006534646968247</v>
       </c>
       <c r="D2">
-        <v>1.035755606207742</v>
+        <v>1.02152776110677</v>
       </c>
       <c r="E2">
-        <v>1.052201421705744</v>
+        <v>1.008840782295787</v>
       </c>
       <c r="F2">
-        <v>1.057679932864867</v>
+        <v>1.013387552278392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035777505714085</v>
+        <v>1.043316501617212</v>
       </c>
       <c r="J2">
-        <v>1.038527633493211</v>
+        <v>1.028521649218319</v>
       </c>
       <c r="K2">
-        <v>1.03855130136421</v>
+        <v>1.032695110777823</v>
       </c>
       <c r="L2">
-        <v>1.054950809217675</v>
+        <v>1.020178309827055</v>
       </c>
       <c r="M2">
-        <v>1.060414240607005</v>
+        <v>1.024663475483701</v>
       </c>
       <c r="N2">
-        <v>1.016798842042896</v>
+        <v>1.013295861006459</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034329766068087</v>
+        <v>1.011044107767524</v>
       </c>
       <c r="D3">
-        <v>1.036427912282907</v>
+        <v>1.024715049499436</v>
       </c>
       <c r="E3">
-        <v>1.053467042264478</v>
+        <v>1.014464342776231</v>
       </c>
       <c r="F3">
-        <v>1.059016908378663</v>
+        <v>1.019332447527868</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03598388010999</v>
+        <v>1.044586203063944</v>
       </c>
       <c r="J3">
-        <v>1.039097499322869</v>
+        <v>1.031238161079849</v>
       </c>
       <c r="K3">
-        <v>1.039033432436287</v>
+        <v>1.035041169060815</v>
       </c>
       <c r="L3">
-        <v>1.056028065862906</v>
+        <v>1.024915435247459</v>
       </c>
       <c r="M3">
-        <v>1.061563772226247</v>
+        <v>1.029723800271795</v>
       </c>
       <c r="N3">
-        <v>1.016989481453113</v>
+        <v>1.014210311180095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034929596865193</v>
+        <v>1.013897609289737</v>
       </c>
       <c r="D4">
-        <v>1.036862901629136</v>
+        <v>1.026734618022712</v>
       </c>
       <c r="E4">
-        <v>1.054286710371128</v>
+        <v>1.018026696134904</v>
       </c>
       <c r="F4">
-        <v>1.059882788894382</v>
+        <v>1.023097943986898</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036116226252016</v>
+        <v>1.045380112035612</v>
       </c>
       <c r="J4">
-        <v>1.03946558768959</v>
+        <v>1.032952372107782</v>
       </c>
       <c r="K4">
-        <v>1.039344686094113</v>
+        <v>1.036520741702259</v>
       </c>
       <c r="L4">
-        <v>1.056725292796357</v>
+        <v>1.027912316295793</v>
       </c>
       <c r="M4">
-        <v>1.062307819885126</v>
+        <v>1.032925366117256</v>
       </c>
       <c r="N4">
-        <v>1.017112571294247</v>
+        <v>1.01478723668201</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035181757080098</v>
+        <v>1.015082366281679</v>
       </c>
       <c r="D5">
-        <v>1.037045761248684</v>
+        <v>1.027573731222297</v>
       </c>
       <c r="E5">
-        <v>1.054631474390235</v>
+        <v>1.019506819679056</v>
       </c>
       <c r="F5">
-        <v>1.060246990468926</v>
+        <v>1.02466237282837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036171578949481</v>
+        <v>1.045707417478168</v>
       </c>
       <c r="J5">
-        <v>1.039620175332636</v>
+        <v>1.033662938780218</v>
       </c>
       <c r="K5">
-        <v>1.039475364888434</v>
+        <v>1.03713382510833</v>
       </c>
       <c r="L5">
-        <v>1.057018448953602</v>
+        <v>1.029156535240124</v>
       </c>
       <c r="M5">
-        <v>1.06262067237744</v>
+        <v>1.034254611173183</v>
       </c>
       <c r="N5">
-        <v>1.01716425424827</v>
+        <v>1.015026347804175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035224095371918</v>
+        <v>1.015280437007627</v>
       </c>
       <c r="D6">
-        <v>1.037076463576849</v>
+        <v>1.02771405017879</v>
       </c>
       <c r="E6">
-        <v>1.054689372124217</v>
+        <v>1.019754336162509</v>
       </c>
       <c r="F6">
-        <v>1.060308152433503</v>
+        <v>1.024923981631826</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036180856153912</v>
+        <v>1.045761999835592</v>
       </c>
       <c r="J6">
-        <v>1.039646122077351</v>
+        <v>1.03378166401832</v>
       </c>
       <c r="K6">
-        <v>1.039497296318025</v>
+        <v>1.037236248882836</v>
       </c>
       <c r="L6">
-        <v>1.057067673660271</v>
+        <v>1.029364545623724</v>
       </c>
       <c r="M6">
-        <v>1.062673204941389</v>
+        <v>1.034476838958285</v>
       </c>
       <c r="N6">
-        <v>1.017172928284268</v>
+        <v>1.015066297689682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03493296627677</v>
+        <v>1.013913497712042</v>
       </c>
       <c r="D7">
-        <v>1.036865345048353</v>
+        <v>1.026745868812722</v>
       </c>
       <c r="E7">
-        <v>1.054291316433145</v>
+        <v>1.01804654129636</v>
       </c>
       <c r="F7">
-        <v>1.059887654643168</v>
+        <v>1.023118919884266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036116967000109</v>
+        <v>1.045384510646546</v>
       </c>
       <c r="J7">
-        <v>1.039467653913485</v>
+        <v>1.032961905936301</v>
       </c>
       <c r="K7">
-        <v>1.039346432907987</v>
+        <v>1.036528968472158</v>
       </c>
       <c r="L7">
-        <v>1.0567292097968</v>
+        <v>1.027929002292786</v>
       </c>
       <c r="M7">
-        <v>1.062312000018293</v>
+        <v>1.03294319220564</v>
       </c>
       <c r="N7">
-        <v>1.017113262136183</v>
+        <v>1.014790445024837</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033716021770947</v>
+        <v>1.00807233099964</v>
       </c>
       <c r="D8">
-        <v>1.035982822452979</v>
+        <v>1.022613995654444</v>
       </c>
       <c r="E8">
-        <v>1.052628994479679</v>
+        <v>1.010757631004235</v>
       </c>
       <c r="F8">
-        <v>1.058131611922911</v>
+        <v>1.015414018022808</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035847497528594</v>
+        <v>1.043751439114387</v>
       </c>
       <c r="J8">
-        <v>1.038720357276022</v>
+        <v>1.029448935607768</v>
       </c>
       <c r="K8">
-        <v>1.038714388056568</v>
+        <v>1.033496116755916</v>
       </c>
       <c r="L8">
-        <v>1.055314838752053</v>
+        <v>1.021793828684506</v>
       </c>
       <c r="M8">
-        <v>1.060802684616251</v>
+        <v>1.026389167382532</v>
       </c>
       <c r="N8">
-        <v>1.016863324612869</v>
+        <v>1.013608034002416</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031571360328101</v>
+        <v>0.9972588593208093</v>
       </c>
       <c r="D9">
-        <v>1.034427455600163</v>
+        <v>1.014988987938989</v>
       </c>
       <c r="E9">
-        <v>1.049705271140779</v>
+        <v>0.9972886361923731</v>
       </c>
       <c r="F9">
-        <v>1.055043052356155</v>
+        <v>1.001173015609997</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035363541631395</v>
+        <v>1.040653603875195</v>
       </c>
       <c r="J9">
-        <v>1.037398541499922</v>
+        <v>1.022908787052418</v>
       </c>
       <c r="K9">
-        <v>1.037595171767733</v>
+        <v>1.027843471673702</v>
       </c>
       <c r="L9">
-        <v>1.052823779307446</v>
+        <v>1.010425857090411</v>
       </c>
       <c r="M9">
-        <v>1.05814473548057</v>
+        <v>1.01424709007959</v>
       </c>
       <c r="N9">
-        <v>1.016420869130226</v>
+        <v>1.011405903331421</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030141436531699</v>
+        <v>0.9896589902281652</v>
       </c>
       <c r="D10">
-        <v>1.033390427965047</v>
+        <v>1.009650031827902</v>
       </c>
       <c r="E10">
-        <v>1.047759724202017</v>
+        <v>0.9878294966158661</v>
       </c>
       <c r="F10">
-        <v>1.052987821071018</v>
+        <v>0.9911694319204488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03503479077611</v>
+        <v>1.03842799327494</v>
       </c>
       <c r="J10">
-        <v>1.036514001570785</v>
+        <v>1.018288986634666</v>
       </c>
       <c r="K10">
-        <v>1.036845376216197</v>
+        <v>1.023847210796894</v>
       </c>
       <c r="L10">
-        <v>1.051163826205372</v>
+        <v>1.00242202600112</v>
       </c>
       <c r="M10">
-        <v>1.056373802297804</v>
+        <v>1.005699976664181</v>
       </c>
       <c r="N10">
-        <v>1.016124542064236</v>
+        <v>1.009850063955692</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029522231342805</v>
+        <v>0.9862654133200707</v>
       </c>
       <c r="D11">
-        <v>1.032941366299381</v>
+        <v>1.007271635796235</v>
       </c>
       <c r="E11">
-        <v>1.046918113234335</v>
+        <v>0.9836049887418958</v>
       </c>
       <c r="F11">
-        <v>1.052098763803399</v>
+        <v>0.9867012256716813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034890990994194</v>
+        <v>1.037423194417879</v>
       </c>
       <c r="J11">
-        <v>1.03613020025647</v>
+        <v>1.016220943842968</v>
       </c>
       <c r="K11">
-        <v>1.0365198458784</v>
+        <v>1.022057710363161</v>
       </c>
       <c r="L11">
-        <v>1.050445207899062</v>
+        <v>0.9988428587589709</v>
       </c>
       <c r="M11">
-        <v>1.055607194910095</v>
+        <v>1.001878372056833</v>
       </c>
       <c r="N11">
-        <v>1.015995909414484</v>
+        <v>1.009153578887946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029292225289991</v>
+        <v>0.9849885105024964</v>
       </c>
       <c r="D12">
-        <v>1.032774562301759</v>
+        <v>1.006377636375646</v>
       </c>
       <c r="E12">
-        <v>1.046605623225413</v>
+        <v>0.9820151007230287</v>
       </c>
       <c r="F12">
-        <v>1.051768657230261</v>
+        <v>0.9850195392783068</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034837359930429</v>
+        <v>1.037043509300336</v>
       </c>
       <c r="J12">
-        <v>1.035987520960754</v>
+        <v>1.015442057041949</v>
       </c>
       <c r="K12">
-        <v>1.036398800002729</v>
+        <v>1.021383662507099</v>
       </c>
       <c r="L12">
-        <v>1.050178302241944</v>
+        <v>0.9974951693400568</v>
       </c>
       <c r="M12">
-        <v>1.055322473898689</v>
+        <v>1.000439481158872</v>
       </c>
       <c r="N12">
-        <v>1.015948081423387</v>
+        <v>1.008891264040186</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029341562623578</v>
+        <v>0.9852631674477355</v>
       </c>
       <c r="D13">
-        <v>1.032810342426101</v>
+        <v>1.00656988937501</v>
       </c>
       <c r="E13">
-        <v>1.04667264791409</v>
+        <v>0.9823570983288643</v>
       </c>
       <c r="F13">
-        <v>1.051839460411394</v>
+        <v>0.985381287200282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034848873811293</v>
+        <v>1.037125250104977</v>
       </c>
       <c r="J13">
-        <v>1.03601813150793</v>
+        <v>1.015609625696011</v>
       </c>
       <c r="K13">
-        <v>1.036424770604138</v>
+        <v>1.021528679024982</v>
       </c>
       <c r="L13">
-        <v>1.050235553480479</v>
+        <v>0.997785098255503</v>
       </c>
       <c r="M13">
-        <v>1.055383546141843</v>
+        <v>1.000749026285821</v>
       </c>
       <c r="N13">
-        <v>1.01595834286411</v>
+        <v>1.008947697920141</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029503219085662</v>
+        <v>0.9861602039025121</v>
       </c>
       <c r="D14">
-        <v>1.032927578275398</v>
+        <v>1.007197956238983</v>
       </c>
       <c r="E14">
-        <v>1.046892280239902</v>
+        <v>0.9834739992245615</v>
       </c>
       <c r="F14">
-        <v>1.052071474473749</v>
+        <v>0.9865626746513345</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034886562267933</v>
+        <v>1.037391942995265</v>
       </c>
       <c r="J14">
-        <v>1.036118408755276</v>
+        <v>1.016156782986578</v>
       </c>
       <c r="K14">
-        <v>1.036509842826372</v>
+        <v>1.022002186898584</v>
       </c>
       <c r="L14">
-        <v>1.050423144972025</v>
+        <v>0.9987318373714578</v>
       </c>
       <c r="M14">
-        <v>1.055583659157759</v>
+        <v>1.001759835793825</v>
       </c>
       <c r="N14">
-        <v>1.015991956918189</v>
+        <v>1.00913197060887</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029602820219602</v>
+        <v>0.9867106982676618</v>
       </c>
       <c r="D15">
-        <v>1.032999810843436</v>
+        <v>1.007583512763601</v>
       </c>
       <c r="E15">
-        <v>1.047027619042295</v>
+        <v>0.9841593697093166</v>
       </c>
       <c r="F15">
-        <v>1.052214443011977</v>
+        <v>0.9872876054660653</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034909754565328</v>
+        <v>1.037555396639867</v>
       </c>
       <c r="J15">
-        <v>1.036180177195189</v>
+        <v>1.016492466089523</v>
       </c>
       <c r="K15">
-        <v>1.036562241492953</v>
+        <v>1.022292677371595</v>
       </c>
       <c r="L15">
-        <v>1.050538729036534</v>
+        <v>0.9993127021543331</v>
       </c>
       <c r="M15">
-        <v>1.05570695946238</v>
+        <v>1.00238002198879</v>
       </c>
       <c r="N15">
-        <v>1.016012661277091</v>
+        <v>1.009245023058367</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030182530336846</v>
+        <v>0.9898819670981214</v>
       </c>
       <c r="D16">
-        <v>1.033420230315301</v>
+        <v>1.00980642893465</v>
       </c>
       <c r="E16">
-        <v>1.04781559633594</v>
+        <v>0.9881070370706325</v>
       </c>
       <c r="F16">
-        <v>1.053046843059651</v>
+        <v>0.9914629713700377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035044303792824</v>
+        <v>1.038493788920216</v>
       </c>
       <c r="J16">
-        <v>1.036539456582933</v>
+        <v>1.018424763842216</v>
       </c>
       <c r="K16">
-        <v>1.036866962423332</v>
+        <v>1.023964689791681</v>
       </c>
       <c r="L16">
-        <v>1.051211521599335</v>
+        <v>1.00265707463701</v>
       </c>
       <c r="M16">
-        <v>1.05642468396079</v>
+        <v>1.005950957785248</v>
       </c>
       <c r="N16">
-        <v>1.016133072236875</v>
+        <v>1.009895791683288</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030546156906655</v>
+        <v>0.9918430652169918</v>
       </c>
       <c r="D17">
-        <v>1.033683943045326</v>
+        <v>1.011182600149938</v>
       </c>
       <c r="E17">
-        <v>1.04831009280709</v>
+        <v>0.990547920313546</v>
       </c>
       <c r="F17">
-        <v>1.053569217484833</v>
+        <v>0.9940444986972697</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035128315305342</v>
+        <v>1.039071221935149</v>
       </c>
       <c r="J17">
-        <v>1.03676461180085</v>
+        <v>1.019618351918267</v>
       </c>
       <c r="K17">
-        <v>1.037057874786087</v>
+        <v>1.024997358235639</v>
       </c>
       <c r="L17">
-        <v>1.051633586177934</v>
+        <v>1.004723733605673</v>
       </c>
       <c r="M17">
-        <v>1.056874950837896</v>
+        <v>1.008157761469852</v>
       </c>
       <c r="N17">
-        <v>1.016208516989236</v>
+        <v>1.010297772875977</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030758250384255</v>
+        <v>0.9929770904837714</v>
       </c>
       <c r="D18">
-        <v>1.033837760057981</v>
+        <v>1.01197891183513</v>
       </c>
       <c r="E18">
-        <v>1.048598603839393</v>
+        <v>0.9919593347927883</v>
       </c>
       <c r="F18">
-        <v>1.053873993867472</v>
+        <v>0.9955371874061375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035177178027475</v>
+        <v>1.039404084161444</v>
       </c>
       <c r="J18">
-        <v>1.036895864820484</v>
+        <v>1.020308065769286</v>
       </c>
       <c r="K18">
-        <v>1.037169147356561</v>
+        <v>1.02559402830337</v>
       </c>
       <c r="L18">
-        <v>1.05187978411902</v>
+        <v>1.005918319163384</v>
       </c>
       <c r="M18">
-        <v>1.057137605072583</v>
+        <v>1.00943340204091</v>
       </c>
       <c r="N18">
-        <v>1.016252491648459</v>
+        <v>1.010530055411221</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030830568138872</v>
+        <v>0.9933621202317756</v>
       </c>
       <c r="D19">
-        <v>1.033890207293857</v>
+        <v>1.012249366488806</v>
       </c>
       <c r="E19">
-        <v>1.048696992208407</v>
+        <v>0.9924385426849484</v>
       </c>
       <c r="F19">
-        <v>1.053977929084897</v>
+        <v>0.99604398103141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03519381523928</v>
+        <v>1.039516920746107</v>
       </c>
       <c r="J19">
-        <v>1.03694060577441</v>
+        <v>1.020542156570434</v>
       </c>
       <c r="K19">
-        <v>1.037207074273156</v>
+        <v>1.025796529642119</v>
       </c>
       <c r="L19">
-        <v>1.051963733819212</v>
+        <v>1.006323833853498</v>
       </c>
       <c r="M19">
-        <v>1.057227167023861</v>
+        <v>1.009866439522082</v>
       </c>
       <c r="N19">
-        <v>1.016267480610395</v>
+        <v>1.010608892276659</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030507143603608</v>
+        <v>0.9916336833084288</v>
       </c>
       <c r="D20">
-        <v>1.033655649382963</v>
+        <v>1.011035614360015</v>
       </c>
       <c r="E20">
-        <v>1.0482570297955</v>
+        <v>0.9902873197312433</v>
       </c>
       <c r="F20">
-        <v>1.053513162956118</v>
+        <v>0.993768887637834</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035119316120914</v>
+        <v>1.039009678834221</v>
       </c>
       <c r="J20">
-        <v>1.036740462657709</v>
+        <v>1.019490965992935</v>
       </c>
       <c r="K20">
-        <v>1.037037400318</v>
+        <v>1.024887152222705</v>
       </c>
       <c r="L20">
-        <v>1.051588301122964</v>
+        <v>1.004503132338401</v>
       </c>
       <c r="M20">
-        <v>1.056826639284254</v>
+        <v>1.007922195749466</v>
       </c>
       <c r="N20">
-        <v>1.016200425685549</v>
+        <v>1.010254871521816</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029455615442258</v>
+        <v>0.9858965090093592</v>
       </c>
       <c r="D21">
-        <v>1.032893055302564</v>
+        <v>1.007013302289764</v>
       </c>
       <c r="E21">
-        <v>1.046827600648331</v>
+        <v>0.9831456834589386</v>
       </c>
       <c r="F21">
-        <v>1.052003148573819</v>
+        <v>0.9862154051884416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034875469957138</v>
+        <v>1.037313589258866</v>
       </c>
       <c r="J21">
-        <v>1.036088882871719</v>
+        <v>1.015995959568795</v>
       </c>
       <c r="K21">
-        <v>1.036484794746711</v>
+        <v>1.021863012638105</v>
       </c>
       <c r="L21">
-        <v>1.050367903382445</v>
+        <v>0.9984535594838997</v>
       </c>
       <c r="M21">
-        <v>1.055524730017239</v>
+        <v>1.001462723085409</v>
       </c>
       <c r="N21">
-        <v>1.015982059743678</v>
+        <v>1.009077808085675</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028794445187818</v>
+        <v>0.9821940460007059</v>
       </c>
       <c r="D22">
-        <v>1.032413568054482</v>
+        <v>1.004422927745876</v>
       </c>
       <c r="E22">
-        <v>1.04592956539998</v>
+        <v>0.9785348041362064</v>
       </c>
       <c r="F22">
-        <v>1.051054487257931</v>
+        <v>0.9813381409843207</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034720896356798</v>
+        <v>1.036209667880646</v>
       </c>
       <c r="J22">
-        <v>1.035678523899578</v>
+        <v>1.013736154041065</v>
       </c>
       <c r="K22">
-        <v>1.036136601128671</v>
+        <v>1.019907271838727</v>
       </c>
       <c r="L22">
-        <v>1.04960071257292</v>
+        <v>0.9945438305250609</v>
       </c>
       <c r="M22">
-        <v>1.054706347115675</v>
+        <v>0.9972885850112474</v>
       </c>
       <c r="N22">
-        <v>1.015844486199956</v>
+        <v>1.008316756728149</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029144947106325</v>
+        <v>0.9841661551308799</v>
       </c>
       <c r="D23">
-        <v>1.03266775439132</v>
+        <v>1.005802149272546</v>
       </c>
       <c r="E23">
-        <v>1.046405564842769</v>
+        <v>0.9809910526754609</v>
       </c>
       <c r="F23">
-        <v>1.051557320667251</v>
+        <v>0.9839363403973576</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034802957909509</v>
+        <v>1.036798535246972</v>
       </c>
       <c r="J23">
-        <v>1.03589612779473</v>
+        <v>1.014940230217118</v>
       </c>
       <c r="K23">
-        <v>1.036321255982384</v>
+        <v>1.020949365271706</v>
       </c>
       <c r="L23">
-        <v>1.050007403972298</v>
+        <v>0.9966269339021063</v>
       </c>
       <c r="M23">
-        <v>1.055140170964448</v>
+        <v>0.9995125152431208</v>
       </c>
       <c r="N23">
-        <v>1.015917442862891</v>
+        <v>1.008722259190283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030524772047426</v>
+        <v>0.9917283243512862</v>
       </c>
       <c r="D24">
-        <v>1.033668434077809</v>
+        <v>1.011102050605049</v>
       </c>
       <c r="E24">
-        <v>1.048281006439873</v>
+        <v>0.9904051118604357</v>
       </c>
       <c r="F24">
-        <v>1.05353849132404</v>
+        <v>0.9938934647013485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035123382896844</v>
+        <v>1.039037499681805</v>
       </c>
       <c r="J24">
-        <v>1.036751374851425</v>
+        <v>1.019548546211457</v>
       </c>
       <c r="K24">
-        <v>1.037046652106425</v>
+        <v>1.024936967057499</v>
       </c>
       <c r="L24">
-        <v>1.051608763443799</v>
+        <v>1.004602846034065</v>
       </c>
       <c r="M24">
-        <v>1.056848469129873</v>
+        <v>1.008028673361607</v>
       </c>
       <c r="N24">
-        <v>1.016204081893137</v>
+        <v>1.01027426353989</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032125834415625</v>
+        <v>1.000120118034473</v>
       </c>
       <c r="D25">
-        <v>1.034829579463566</v>
+        <v>1.017003405463872</v>
       </c>
       <c r="E25">
-        <v>1.050460481804124</v>
+        <v>1.000850603910667</v>
       </c>
       <c r="F25">
-        <v>1.05584084051551</v>
+        <v>1.004939534312718</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035489734541382</v>
+        <v>1.041481774794462</v>
       </c>
       <c r="J25">
-        <v>1.037740850947302</v>
+        <v>1.02464344040463</v>
       </c>
       <c r="K25">
-        <v>1.037885161629396</v>
+        <v>1.029343377551691</v>
       </c>
       <c r="L25">
-        <v>1.05346763909274</v>
+        <v>1.013435729684353</v>
       </c>
       <c r="M25">
-        <v>1.058831691030374</v>
+        <v>1.017461651274274</v>
       </c>
       <c r="N25">
-        <v>1.016535494382707</v>
+        <v>1.011990048486002</v>
       </c>
     </row>
   </sheetData>
